--- a/xlsx/Honda_intext.xlsx
+++ b/xlsx/Honda_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%90%8D%E7%A8%B1</t>
   </si>
   <si>
-    <t>商業名稱</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_Honda</t>
+    <t>商业名称</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_Honda</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>東京證券交易所</t>
+    <t>东京证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%B3%95%E4%BA%BA%E7%95%AA%E5%8F%B7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E5%AE%97%E4%B8%80%E9%83%8E</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A1%A8%E5%8F%96%E7%B7%A0%E5%BD%B9</t>
   </si>
   <si>
-    <t>代表取締役</t>
+    <t>代表取缔役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E9%95%B7</t>
   </si>
   <si>
-    <t>社長</t>
+    <t>社长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%83%BD</t>
   </si>
   <si>
-    <t>東京都</t>
+    <t>东京都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8D%80_(%E6%9D%B1%E4%BA%AC%E9%83%BD)</t>
   </si>
   <si>
-    <t>港區 (東京都)</t>
+    <t>港区 (东京都)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%92%E5%B1%B1</t>
@@ -119,31 +119,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>飛機</t>
+    <t>飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>發動機</t>
+    <t>发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -167,13 +167,13 @@
     <t>https://ja.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%8A%80%E7%A0%94%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-本田技研工業</t>
+    <t>ja-本田技研工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E5%85%B7</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>機械工程</t>
+    <t>机械工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>台灣本田汽車</t>
+    <t>台湾本田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%99%BD%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>三陽工業</t>
+    <t>三阳工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%85%AC%E5%8F%B8</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%85%B6%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>大慶汽車</t>
+    <t>大庆汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%98%8C%E8%A1%8C%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>大昌行集團</t>
+    <t>大昌行集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>本田汽車</t>
+    <t>本田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -269,25 +269,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E%E6%B1%BD%E8%BB%8A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>廣州汽車集團</t>
+    <t>广州汽车集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%A2%A8%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>東風汽車公司</t>
+    <t>东风汽车公司</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Honda_engines</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%A9%E6%89%98%E8%BB%8A%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界摩托車錦標賽</t>
+    <t>世界摩托车锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E5%B4%8E</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8</t>
   </si>
   <si>
-    <t>鈴木</t>
+    <t>铃木</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MV_Agusta</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%91%89</t>
   </si>
   <si>
-    <t>山葉</t>
+    <t>山叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>一級方程式賽車</t>
+    <t>一级方程式赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F1</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%87%B1%E5%80%AB</t>
   </si>
   <si>
-    <t>邁凱倫</t>
+    <t>迈凯伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E8%BB%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>英美車隊</t>
+    <t>英美车队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E8%BD%A6%E9%98%9F</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E4%B8%96%E7%95%8C%E4%B8%80%E7%B4%9A%E6%96%B9%E7%A8%8B%E5%BC%8F%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
-    <t>2009年世界一級方程式錦標賽</t>
+    <t>2009年世界一级方程式锦标赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F1%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>F1賽車</t>
+    <t>F1赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VTEC</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99A%E8%87%82%E6%87%B8%E5%90%8A</t>
   </si>
   <si>
-    <t>雙A臂懸吊</t>
+    <t>双A臂悬吊</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%9B%E3%83%B3%E3%83%80_%E3%82%A8%E3%82%A2%E3%82%AF%E3%83%A9%E3%83%95%E3%83%88</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%85%99%E8%8D%89%E7%94%A2%E6%A5%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>日本煙草產業公司</t>
+    <t>日本烟草产业公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/7%26I%E6%8E%A7%E8%82%A1</t>
@@ -605,31 +605,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%B6%8A%E5%8C%96%E5%AD%B8%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>信越化學工業</t>
+    <t>信越化学工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%94%B0%E8%97%A5%E5%93%81</t>
   </si>
   <si>
-    <t>武田藥品</t>
+    <t>武田药品</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%82%B9%E3%83%86%E3%83%A9%E3%82%B9%E8%A3%BD%E8%96%AC</t>
   </si>
   <si>
-    <t>ja-アステラス製薬</t>
+    <t>ja-アステラス制薬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A3%9D</t>
   </si>
   <si>
-    <t>電裝</t>
+    <t>电装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E9%82%A3%E7%A7%91</t>
@@ -659,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%91%E7%94%B0%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>村田製作所</t>
+    <t>村田制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>日產汽車</t>
+    <t>日产汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E7%89%A9%E7%94%A2</t>
   </si>
   <si>
-    <t>三井物產</t>
+    <t>三井物产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%95%86%E4%BA%8B</t>
@@ -701,25 +701,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%97%A5%E8%81%AF%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三菱日聯金融集團</t>
+    <t>三菱日联金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三井住友金融集團</t>
+    <t>三井住友金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E7%A9%97%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>瑞穗金融集團</t>
+    <t>瑞穗金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%B5%B7%E4%B8%8A%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>東京海上控股</t>
+    <t>东京海上控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%9C%B0%E6%89%80</t>
@@ -731,19 +731,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東日本旅客鐵道</t>
+    <t>东日本旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B5%B7%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東海旅客鐵道</t>
+    <t>东海旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KDDI</t>
@@ -761,31 +761,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>軟銀集團</t>
+    <t>软银集团</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%9B%BD%E9%9A%9B%E7%9F%B3%E6%B2%B9%E9%96%8B%E7%99%BA%E5%B8%9D%E7%9F%B3</t>
   </si>
   <si>
-    <t>ja-国際石油開発帝石</t>
+    <t>ja-国际石油开発帝石</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E5%BB%BA%E8%A8%97</t>
   </si>
   <si>
-    <t>ja-大東建託</t>
+    <t>ja-大东建讬</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E3%83%8F%E3%82%A6%E3%82%B9%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-大和ハウス工業</t>
+    <t>ja-大和ハウス工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E6%B0%B4%E6%88%BF%E5%B1%8B</t>
   </si>
   <si>
-    <t>積水房屋</t>
+    <t>积水房屋</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%82%A2%E3%82%B5%E3%83%92%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -809,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%BA%97%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>東麗株式會社</t>
+    <t>东丽株式会社</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%AD%E5%8C%96%E6%88%90</t>
@@ -821,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%8C%96%E5%AD%B8%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三菱化學控股</t>
+    <t>三菱化学控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%8E%8B</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%A9%E9%87%8E%E7%BE%A9%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>塩野義製藥</t>
+    <t>塩野义制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%9D%90</t>
@@ -845,7 +845,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%B0%8F%E9%87%8E%E8%96%AC%E5%93%81%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-小野薬品工業</t>
+    <t>ja-小野薬品工业</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E4%B8%89%E5%85%B1</t>
@@ -857,7 +857,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%A1%9A%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
   </si>
   <si>
-    <t>ja-大塚ホールディングス</t>
+    <t>ja-大冢ホールディングス</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Oriental_Land</t>
@@ -869,19 +869,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E8%BB%9F%E7%89%87%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>富士軟片控股</t>
+    <t>富士软片控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%9F%E5%A0%82</t>
   </si>
   <si>
-    <t>資生堂</t>
+    <t>资生堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JXTG%E6%8E%A7%E8%82%A1</t>
@@ -899,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%97%A5%E9%90%B5%E4%BD%8F%E9%87%91</t>
   </si>
   <si>
-    <t>新日鐵住金</t>
+    <t>新日铁住金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JFE%E6%8E%A7%E8%82%A1</t>
@@ -917,7 +917,7 @@
     <t>https://ja.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E9%9B%BB%E6%B0%97%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>ja-住友電気工業</t>
+    <t>ja-住友电気工业</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%AA%E3%82%AF%E3%83%AB%E3%83%BC%E3%83%88</t>
@@ -935,19 +935,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%9D%BE%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>小松製作所</t>
+    <t>小松制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%85%E4%BF%9D%E7%94%B0_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>久保田 (企業)</t>
+    <t>久保田 (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%91%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>大金工業</t>
+    <t>大金工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E7%94%B5%E6%9C%BA</t>
@@ -959,7 +959,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E7%94%A3</t>
   </si>
   <si>
-    <t>ja-日本電産</t>
+    <t>ja-日本电产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%80%9A</t>
@@ -977,7 +977,7 @@
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9D%B1%E9%9B%BB%E5%B7%A5</t>
   </si>
   <si>
-    <t>ja-日東電工</t>
+    <t>ja-日东电工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%87%8D%E5%B7%A5%E4%B8%9A</t>
@@ -989,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%87%AA%E8%BE%BE</t>
@@ -1001,13 +1001,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8_(%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>鈴木 (公司)</t>
+    <t>铃木 (公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8</t>
   </si>
   <si>
-    <t>速霸陸</t>
+    <t>速霸陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E9%9B%85_(%E6%97%A5%E6%9C%AC)</t>
@@ -1025,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E7%B4%85</t>
   </si>
   <si>
-    <t>丸紅</t>
+    <t>丸红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%A8%81%E5%8A%9B%E7%A7%91%E5%89%B5</t>
   </si>
   <si>
-    <t>東京威力科創</t>
+    <t>东京威力科创</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%95%86%E4%BA%8B</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%8C%E8%81%AF</t>
   </si>
   <si>
-    <t>嬌聯</t>
+    <t>娇联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%9B%E5%A3%AB</t>
   </si>
   <si>
-    <t>歐力士</t>
+    <t>欧力士</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E5%92%8C%E8%A8%BC%E5%88%B8%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E6%9C%AC%E7%A4%BE</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%8D%E4%BF%9D%E6%97%A5%E6%9C%AC%E8%88%88%E4%BA%9E%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>損保日本興亞控股</t>
+    <t>损保日本兴亚控股</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/MS%26AD%E3%82%A4%E3%83%B3%E3%82%B7%E3%83%A5%E3%82%A2%E3%83%A9%E3%83%B3%E3%82%B9%E3%82%B0%E3%83%AB%E3%83%BC%E3%83%97%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -1121,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>西日本旅客鐵道</t>
+    <t>西日本旅客铁道</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E3%83%A4%E3%83%9E%E3%83%88%E3%83%9B%E3%83%BC%E3%83%AB%E3%83%87%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9</t>
@@ -1145,25 +1145,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>中部電力</t>
+    <t>中部电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%A5%BF%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>關西電力</t>
+    <t>关西电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E7%87%83%E6%B0%A3</t>
   </si>
   <si>
-    <t>東京燃氣</t>
+    <t>东京燃气</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%A4%A7%E9%98%AA%E3%82%AC%E3%82%B9</t>
   </si>
   <si>
-    <t>ja-大阪ガス</t>
+    <t>ja-大坂ガス</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SECOM</t>
@@ -1181,13 +1181,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%85%E9%8A%B7</t>
   </si>
   <si>
-    <t>迅銷</t>
+    <t>迅销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%B6%93%E5%B9%B3%E5%9D%87%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>日經平均指數</t>
+    <t>日经平均指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%81%AB%E8%85%BF</t>
@@ -1211,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E7%94%B2%E8%90%AC</t>
   </si>
   <si>
-    <t>龜甲萬</t>
+    <t>龟甲万</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AD%90%E5%88%B6%E7%BA%B8</t>
@@ -1223,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>住友化學</t>
+    <t>住友化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%83%A8%E5%85%B4%E4%BA%A7</t>
@@ -1235,19 +1235,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%94%B0%E8%97%A5%E5%93%81%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>武田藥品工業</t>
+    <t>武田药品工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E4%BD%8F%E5%8F%8B%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>大日本住友製藥</t>
+    <t>大日本住友制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E9%87%8E%E7%BE%A9%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>鹽野義製藥</t>
+    <t>盐野义制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JX%E6%8E%A7%E8%82%A1</t>
@@ -1259,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橫濱橡膠</t>
+    <t>横滨橡胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%AD%E7%A1%9D%E5%AD%90</t>
@@ -1277,13 +1277,13 @@
     <t>https://zh.wikipedia.org/wiki/TOTO_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>TOTO (企業)</t>
+    <t>TOTO (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>神戶製鋼所</t>
+    <t>神户制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B2%BE%E5%B7%A5</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>日本製鋼所</t>
+    <t>日本制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IHI</t>
@@ -1331,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>卡西歐</t>
+    <t>卡西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%8A%9D</t>
@@ -1343,19 +1343,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B7%9D%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>安川電機</t>
+    <t>安川电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E9%9B%BB%E6%B0%A3%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>沖電氣工業</t>
+    <t>冲电气工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%AE</t>
@@ -1373,13 +1373,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%BE%8E%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>三美電機</t>
+    <t>三美电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>先鋒公司</t>
+    <t>先锋公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%AF%B1%E7%94%B5</t>
@@ -1391,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E5%B4%8E%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>川崎重工業</t>
+    <t>川崎重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%87%8E%E6%B1%BD%E8%BD%A6</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>富士重工業</t>
+    <t>富士重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BD%A6</t>
@@ -1421,13 +1421,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E9%81%94</t>
   </si>
   <si>
-    <t>柯尼卡美能達</t>
+    <t>柯尼卡美能达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B8%E7%89%88%E5%8D%B0%E5%88%B7_(%E5%85%AC%E5%8F%B8)</t>
@@ -1451,37 +1451,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%88%90%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>大成建設</t>
+    <t>大成建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9E%97%E7%B5%84</t>
   </si>
   <si>
-    <t>大林組</t>
+    <t>大林组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B0%B4%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>清水建設</t>
+    <t>清水建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%B3%B6%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>鹿島建設</t>
+    <t>鹿岛建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%B6%8A%E4%BC%8A%E5%8B%A2%E4%B8%B9%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三越伊勢丹控股</t>
+    <t>三越伊势丹控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B3%B6%E5%B1%8B</t>
   </si>
   <si>
-    <t>高島屋</t>
+    <t>高岛屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E4%BA%95</t>
@@ -1493,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>永旺集團</t>
+    <t>永旺集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UNY</t>
@@ -1505,37 +1505,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E8%91%89%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>千葉銀行</t>
+    <t>千叶银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>橫濱銀行</t>
+    <t>横滨银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>靜岡銀行</t>
+    <t>静冈银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>福岡金融集團股份</t>
+    <t>福冈金融集团股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>新生銀行</t>
+    <t>新生银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%BA%95%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>松井證券</t>
+    <t>松井证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E9%87%91%E8%9E%8D%E6%8E%A7%E8%82%A1</t>
@@ -1547,37 +1547,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>第一生命保險</t>
+    <t>第一生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A6%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東武鐵道</t>
+    <t>东武铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%80%A5%E8%A1%8C%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>東京急行電鐵</t>
+    <t>东京急行电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%94%B0%E6%80%A5%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>小田急電鐵</t>
+    <t>小田急电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E7%8E%8B%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京王電鐵</t>
+    <t>京王电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%88%90%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京成電鐵</t>
+    <t>京成电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%80%9A%E8%BF%90</t>
@@ -1589,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%83%B5%E8%88%B9</t>
   </si>
   <si>
-    <t>日本郵船</t>
+    <t>日本邮船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E8%88%B9%E4%B8%89%E4%BA%95</t>
@@ -1601,37 +1601,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%97%A5%E6%9C%AC%E7%A9%BA%E8%BC%B8</t>
   </si>
   <si>
-    <t>全日本空輸</t>
+    <t>全日本空输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>東京電力</t>
+    <t>东京电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%AF%B6</t>
   </si>
   <si>
-    <t>東寶</t>
+    <t>东宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>東京巨蛋</t>
+    <t>东京巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E9%80%9A</t>
@@ -1649,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DeNA</t>
@@ -1661,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1673,7 +1673,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1685,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%94%B0%E6%8A%80%E7%A0%94%E5%B7%A5%E4%B8%9A</t>
